--- a/pred_ohlcv/54_21/2020-01-12 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 PLY ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2892697.124630116</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2614046.417367601</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2638420.036467601</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2740778.522267601</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2784307.853567601</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2616816.262267601</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2616816.262267601</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-3060302.870367601</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3430649.262267601</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4632062.0640676</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4631180.1078676</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4636439.7531676</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4645695.2434676</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4645695.2434676</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4645695.2434676</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4645695.2434676</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4645695.2434676</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5393719.5227676</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5526744.244367599</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5526744.244367599</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5526744.244367599</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5472051.323467599</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5601423.254967599</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5601423.254967599</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6773207.641867599</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7162474.744967599</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7661818.9460676</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7186157.748867599</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-10615999.50233652</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-9737536.272890985</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9610974.454502564</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9694181.373002565</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9694313.484002564</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-9684173.484002564</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-9684173.484002564</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9725359.289502565</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9760333.188102566</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9749059.289102565</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9908311.938102566</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-9885496.065202566</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-10938991.25930257</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-10938864.25930257</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-11982979.69200257</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-12032730.01430257</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-12880555.74550257</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-12854197.94966712</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-12856144.65446712</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-12854296.52536712</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-12866590.64306712</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-12866462.64306712</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-12889278.51596712</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-12866462.64296712</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-12999893.65496712</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-12999766.65496712</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-13124458.41766712</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-13124330.41766712</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-13125264.69096712</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-13125136.69096712</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-13125009.69096712</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-13346068.53646712</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-13343315.86056712</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-13656687.51816712</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-13267593.25326712</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-13276463.25326712</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-13285465.18726712</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-12897848.04946712</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-12717051.65286712</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-12718009.65286712</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-12717717.10646712</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-12715417.10646712</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-12710717.10646712</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-12721587.10646712</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-12309583.03406712</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-12309913.03406712</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-11953586.36066712</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-11994374.46916712</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-12022945.46916712</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-12021127.28736712</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-12121127.28736712</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-12140927.28736712</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-12111353.28736712</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-12336177.60526712</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-12346177.60526712</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-12354643.60526712</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-12354643.60526712</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-12364517.60526712</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-12374517.60526712</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-12354517.60526712</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-12324229.15046712</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-12324355.15046712</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-12374355.15046712</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-12384355.15046712</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-12137448.21906712</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-12137725.71906712</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-12137725.71906712</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-12133825.71906712</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-12120825.71906712</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-12105825.71906712</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-12105825.71906712</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-12095825.71906712</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-12050729.65526712</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-12050729.65526712</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-12010729.65526712</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-12010729.65526712</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-11998929.65526712</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-11930729.65526712</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-14138252.90526712</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-13596972.90526712</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-13414747.75316712</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-13454979.94166712</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-13453729.94166712</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-13441507.01316712</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-12984338.46176712</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-13271532.35356712</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-13461449.42206712</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-13395815.60816712</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 PLY ohlcv.xlsx
@@ -2498,7 +2498,7 @@
         <v>-9737536.272890985</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9610974.454502564</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9694181.373002565</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-9694313.484002564</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-9684173.484002564</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-9684173.484002564</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9725359.289502565</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9760333.188102566</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9749059.289102565</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9908311.938102566</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-9885496.065202566</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-10938991.25930257</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-10938864.25930257</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-11982979.69200257</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-12032730.01430257</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-13124330.41766712</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-13125136.69096712</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-13125009.69096712</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-13346068.53646712</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-13322480.90686712</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-13343315.86056712</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-13581663.52796712</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-13656687.51816712</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-13217592.36766712</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-13267593.25326712</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-13276463.25326712</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-13285465.18726712</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-12897848.04946712</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-12717051.65286712</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-12717881.65286712</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-12718009.65286712</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-12717717.10646712</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-12715417.10646712</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-12710417.10646712</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-12710717.10646712</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-12710717.10646712</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-12721587.10646712</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-12309583.03406712</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-12309713.03406712</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-12309913.03406712</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-11953182.47426712</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-11953586.36066712</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-11994374.46916712</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-12022945.46916712</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-12021127.28736712</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-12121127.28736712</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-12140927.28736712</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-12111353.28736712</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-12336177.60526712</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-12346177.60526712</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-12354643.60526712</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-12354643.60526712</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-12374517.60526712</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-12354517.60526712</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-12324229.15046712</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-12324355.15046712</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-12374355.15046712</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-12384355.15046712</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-12137725.71906712</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-12133825.71906712</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-12120825.71906712</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-12105825.71906712</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-12105825.71906712</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-12095825.71906712</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-12050729.65526712</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-12050729.65526712</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-12010729.65526712</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-12010729.65526712</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-11998929.65526712</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-11930729.65526712</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-14138252.90526712</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-13596972.90526712</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-13414747.75316712</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-13454979.94166712</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-13453729.94166712</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-13441507.01316712</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-13181507.01316712</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-13271532.35356712</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-13344632.35356712</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-13284632.35356712</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-13461449.42206712</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-13395815.60816712</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-12507634.46124046</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
